--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H2">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J2">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N2">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O2">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P2">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q2">
-        <v>16.33682435514089</v>
+        <v>27.24215133309666</v>
       </c>
       <c r="R2">
-        <v>16.33682435514089</v>
+        <v>245.17936199787</v>
       </c>
       <c r="S2">
-        <v>0.000885957159007176</v>
+        <v>0.001327134011762365</v>
       </c>
       <c r="T2">
-        <v>0.000885957159007176</v>
+        <v>0.001327134011762365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H3">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J3">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N3">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O3">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P3">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q3">
-        <v>1018.590601543477</v>
+        <v>1583.959107557817</v>
       </c>
       <c r="R3">
-        <v>1018.590601543477</v>
+        <v>14255.63196802035</v>
       </c>
       <c r="S3">
-        <v>0.05523886502769994</v>
+        <v>0.07716446396532768</v>
       </c>
       <c r="T3">
-        <v>0.05523886502769994</v>
+        <v>0.0771644639653277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H4">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I4">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J4">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N4">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O4">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P4">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q4">
-        <v>454.44697603372</v>
+        <v>827.65959422708</v>
       </c>
       <c r="R4">
-        <v>454.44697603372</v>
+        <v>7448.93634804372</v>
       </c>
       <c r="S4">
-        <v>0.02464497034759021</v>
+        <v>0.04032042786304196</v>
       </c>
       <c r="T4">
-        <v>0.02464497034759021</v>
+        <v>0.04032042786304196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.89806302685257</v>
+        <v>15.33750333333333</v>
       </c>
       <c r="H5">
-        <v>9.89806302685257</v>
+        <v>46.01251</v>
       </c>
       <c r="I5">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="J5">
-        <v>0.09871103384458031</v>
+        <v>0.1440483515229198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N5">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O5">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P5">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q5">
-        <v>330.8319200532777</v>
+        <v>518.0274164090378</v>
       </c>
       <c r="R5">
-        <v>330.8319200532777</v>
+        <v>4662.24674768134</v>
       </c>
       <c r="S5">
-        <v>0.01794124131028299</v>
+        <v>0.02523632568278781</v>
       </c>
       <c r="T5">
-        <v>0.01794124131028299</v>
+        <v>0.02523632568278782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H6">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I6">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J6">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N6">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O6">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P6">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q6">
-        <v>106.8680208034429</v>
+        <v>115.3132842732723</v>
       </c>
       <c r="R6">
-        <v>106.8680208034429</v>
+        <v>1037.819558459451</v>
       </c>
       <c r="S6">
-        <v>0.005795525864850466</v>
+        <v>0.005617624676402021</v>
       </c>
       <c r="T6">
-        <v>0.005795525864850466</v>
+        <v>0.00561762467640202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H7">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I7">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J7">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N7">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O7">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P7">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q7">
-        <v>6663.153084686569</v>
+        <v>6704.73945371373</v>
       </c>
       <c r="R7">
-        <v>6663.153084686569</v>
+        <v>60342.65508342356</v>
       </c>
       <c r="S7">
-        <v>0.3613473493140156</v>
+        <v>0.326629408236866</v>
       </c>
       <c r="T7">
-        <v>0.3613473493140156</v>
+        <v>0.326629408236866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H8">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I8">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J8">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N8">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O8">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P8">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q8">
-        <v>2972.783928692394</v>
+        <v>3503.399746357685</v>
       </c>
       <c r="R8">
-        <v>2972.783928692394</v>
+        <v>31530.59771721916</v>
       </c>
       <c r="S8">
-        <v>0.1612161058080856</v>
+        <v>0.170672312305315</v>
       </c>
       <c r="T8">
-        <v>0.1612161058080856</v>
+        <v>0.170672312305315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.74859388046271</v>
+        <v>64.92210766666668</v>
       </c>
       <c r="H9">
-        <v>64.74859388046271</v>
+        <v>194.766323</v>
       </c>
       <c r="I9">
-        <v>0.6457223625050714</v>
+        <v>0.609742171429695</v>
       </c>
       <c r="J9">
-        <v>0.6457223625050714</v>
+        <v>0.6097421714296949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N9">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O9">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P9">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q9">
-        <v>2164.150862255612</v>
+        <v>2192.757906647087</v>
       </c>
       <c r="R9">
-        <v>2164.150862255612</v>
+        <v>19734.82115982378</v>
       </c>
       <c r="S9">
-        <v>0.1173633815181198</v>
+        <v>0.1068228262111119</v>
       </c>
       <c r="T9">
-        <v>0.1173633815181198</v>
+        <v>0.1068228262111119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H10">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I10">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J10">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N10">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O10">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P10">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q10">
-        <v>17.24401202631221</v>
+        <v>18.96613942008366</v>
       </c>
       <c r="R10">
-        <v>17.24401202631221</v>
+        <v>170.695254780753</v>
       </c>
       <c r="S10">
-        <v>0.0009351545669222797</v>
+        <v>0.000923958184816338</v>
       </c>
       <c r="T10">
-        <v>0.0009351545669222797</v>
+        <v>0.000923958184816338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H11">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I11">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J11">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N11">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O11">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P11">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q11">
-        <v>1075.153175493195</v>
+        <v>1102.761265155852</v>
       </c>
       <c r="R11">
-        <v>1075.153175493195</v>
+        <v>9924.851386402665</v>
       </c>
       <c r="S11">
-        <v>0.05830629210123985</v>
+        <v>0.0537223350662617</v>
       </c>
       <c r="T11">
-        <v>0.05830629210123985</v>
+        <v>0.05372233506626171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H12">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I12">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J12">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N12">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O12">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P12">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q12">
-        <v>479.6825227285182</v>
+        <v>576.2212779946519</v>
       </c>
       <c r="R12">
-        <v>479.6825227285182</v>
+        <v>5185.991501951868</v>
       </c>
       <c r="S12">
-        <v>0.02601351130571593</v>
+        <v>0.02807130930951158</v>
       </c>
       <c r="T12">
-        <v>0.02601351130571593</v>
+        <v>0.02807130930951158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.447704777981</v>
+        <v>10.67805633333333</v>
       </c>
       <c r="H13">
-        <v>10.447704777981</v>
+        <v>32.034169</v>
       </c>
       <c r="I13">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="J13">
-        <v>0.1041924806034908</v>
+        <v>0.1002872748488753</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N13">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O13">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P13">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q13">
-        <v>349.203093824747</v>
+        <v>360.6536092875717</v>
       </c>
       <c r="R13">
-        <v>349.203093824747</v>
+        <v>3245.882483588146</v>
       </c>
       <c r="S13">
-        <v>0.01893752262961274</v>
+        <v>0.01756967228828563</v>
       </c>
       <c r="T13">
-        <v>0.01893752262961274</v>
+        <v>0.01756967228828563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H14">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I14">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J14">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.65050720639185</v>
+        <v>1.776179</v>
       </c>
       <c r="N14">
-        <v>1.65050720639185</v>
+        <v>5.328537</v>
       </c>
       <c r="O14">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="P14">
-        <v>0.008975259649312436</v>
+        <v>0.009213114886297067</v>
       </c>
       <c r="Q14">
-        <v>25.052644712684</v>
+        <v>27.596530422759</v>
       </c>
       <c r="R14">
-        <v>25.052644712684</v>
+        <v>248.368773804831</v>
       </c>
       <c r="S14">
-        <v>0.001358622058532516</v>
+        <v>0.001344398013316343</v>
       </c>
       <c r="T14">
-        <v>0.001358622058532516</v>
+        <v>0.001344398013316343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H15">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I15">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J15">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>102.90807391104</v>
+        <v>103.273595</v>
       </c>
       <c r="N15">
-        <v>102.90807391104</v>
+        <v>309.820785</v>
       </c>
       <c r="O15">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284184</v>
       </c>
       <c r="P15">
-        <v>0.5596017271450431</v>
+        <v>0.5356844639284185</v>
       </c>
       <c r="Q15">
-        <v>1562.01645395775</v>
+        <v>1604.564014260495</v>
       </c>
       <c r="R15">
-        <v>1562.01645395775</v>
+        <v>14441.07612834446</v>
       </c>
       <c r="S15">
-        <v>0.08470922070208771</v>
+        <v>0.07816825665996312</v>
       </c>
       <c r="T15">
-        <v>0.08470922070208771</v>
+        <v>0.07816825665996312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H16">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I16">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J16">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.9127179530829</v>
+        <v>53.963124</v>
       </c>
       <c r="N16">
-        <v>45.9127179530829</v>
+        <v>161.889372</v>
       </c>
       <c r="O16">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="P16">
-        <v>0.2496678374009688</v>
+        <v>0.2799089849815219</v>
       </c>
       <c r="Q16">
-        <v>696.8979027887833</v>
+        <v>838.4261908136041</v>
       </c>
       <c r="R16">
-        <v>696.8979027887833</v>
+        <v>7545.835717322437</v>
       </c>
       <c r="S16">
-        <v>0.03779324993957705</v>
+        <v>0.04084493550365334</v>
       </c>
       <c r="T16">
-        <v>0.03779324993957705</v>
+        <v>0.04084493550365333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1787551218581</v>
+        <v>15.537021</v>
       </c>
       <c r="H17">
-        <v>15.1787551218581</v>
+        <v>46.611063</v>
       </c>
       <c r="I17">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="J17">
-        <v>0.1513741230468575</v>
+        <v>0.14592220219851</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.4239051777868</v>
+        <v>33.77521133333333</v>
       </c>
       <c r="N17">
-        <v>33.4239051777868</v>
+        <v>101.325634</v>
       </c>
       <c r="O17">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="P17">
-        <v>0.1817551758046757</v>
+        <v>0.1751934362037625</v>
       </c>
       <c r="Q17">
-        <v>507.3332719098308</v>
+        <v>524.766167765438</v>
       </c>
       <c r="R17">
-        <v>507.3332719098308</v>
+        <v>4722.895509888942</v>
       </c>
       <c r="S17">
-        <v>0.02751303034666019</v>
+        <v>0.0255646120215772</v>
       </c>
       <c r="T17">
-        <v>0.02751303034666019</v>
+        <v>0.0255646120215772</v>
       </c>
     </row>
   </sheetData>
